--- a/lections/PyE-222-1.xlsx
+++ b/lections/PyE-222-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241E46B7-C54C-41D1-BC64-E72513CA674A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E4BAB9-E1F9-4328-B39B-412446047513}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,7 +121,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +170,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -397,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -410,9 +416,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -470,6 +473,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -752,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,61 +771,61 @@
     <row r="1" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="16"/>
-      <c r="BC1" s="17"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
+      <c r="AU1" s="15"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
+      <c r="AY1" s="15"/>
+      <c r="AZ1" s="15"/>
+      <c r="BA1" s="15"/>
+      <c r="BB1" s="15"/>
+      <c r="BC1" s="16"/>
     </row>
     <row r="2" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -826,409 +833,409 @@
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="15" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="15" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="15" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="15" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="15" t="s">
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="15" t="s">
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="15" t="s">
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="15" t="s">
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="15" t="s">
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="15" t="s">
+      <c r="AP2" s="15"/>
+      <c r="AQ2" s="15"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="15" t="s">
+      <c r="AU2" s="15"/>
+      <c r="AV2" s="15"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AY2" s="16"/>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="17"/>
-      <c r="BB2" s="15" t="s">
+      <c r="AY2" s="15"/>
+      <c r="AZ2" s="15"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="BC2" s="17"/>
+      <c r="BC2" s="16"/>
     </row>
     <row r="3" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>14</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>21</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>28</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>5</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>12</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>19</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>26</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>2</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>9</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <v>16</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>23</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <v>30</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="7">
         <v>6</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="7">
         <v>13</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="7">
         <v>20</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="7">
         <v>27</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="7">
         <v>6</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="7">
         <v>13</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="7">
         <v>20</v>
       </c>
-      <c r="W3" s="8">
+      <c r="W3" s="7">
         <v>27</v>
       </c>
-      <c r="X3" s="8">
+      <c r="X3" s="7">
         <v>3</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Y3" s="7">
         <v>10</v>
       </c>
-      <c r="Z3" s="8">
+      <c r="Z3" s="7">
         <v>17</v>
       </c>
-      <c r="AA3" s="8">
+      <c r="AA3" s="7">
         <v>24</v>
       </c>
-      <c r="AB3" s="8">
+      <c r="AB3" s="7">
         <v>1</v>
       </c>
-      <c r="AC3" s="8">
+      <c r="AC3" s="7">
         <v>8</v>
       </c>
-      <c r="AD3" s="8">
-        <v>15</v>
-      </c>
-      <c r="AE3" s="8">
+      <c r="AD3" s="7">
+        <v>15</v>
+      </c>
+      <c r="AE3" s="7">
         <v>22</v>
       </c>
-      <c r="AF3" s="8">
+      <c r="AF3" s="7">
         <v>29</v>
       </c>
-      <c r="AG3" s="8">
+      <c r="AG3" s="7">
         <v>5</v>
       </c>
-      <c r="AH3" s="8">
+      <c r="AH3" s="7">
         <v>12</v>
       </c>
-      <c r="AI3" s="8">
+      <c r="AI3" s="7">
         <v>19</v>
       </c>
-      <c r="AJ3" s="8">
+      <c r="AJ3" s="7">
         <v>26</v>
       </c>
-      <c r="AK3" s="8">
+      <c r="AK3" s="7">
         <v>3</v>
       </c>
-      <c r="AL3" s="8">
+      <c r="AL3" s="7">
         <v>10</v>
       </c>
-      <c r="AM3" s="8">
+      <c r="AM3" s="7">
         <v>17</v>
       </c>
-      <c r="AN3" s="8">
+      <c r="AN3" s="7">
         <v>24</v>
       </c>
-      <c r="AO3" s="8">
+      <c r="AO3" s="7">
         <v>31</v>
       </c>
-      <c r="AP3" s="8">
+      <c r="AP3" s="7">
         <v>7</v>
       </c>
-      <c r="AQ3" s="8">
+      <c r="AQ3" s="7">
         <v>14</v>
       </c>
-      <c r="AR3" s="8">
+      <c r="AR3" s="7">
         <v>21</v>
       </c>
-      <c r="AS3" s="8">
+      <c r="AS3" s="7">
         <v>28</v>
       </c>
-      <c r="AT3" s="8">
+      <c r="AT3" s="7">
         <v>4</v>
       </c>
-      <c r="AU3" s="8">
+      <c r="AU3" s="7">
         <v>11</v>
       </c>
-      <c r="AV3" s="8">
-        <v>18</v>
-      </c>
-      <c r="AW3" s="8">
+      <c r="AV3" s="7">
+        <v>18</v>
+      </c>
+      <c r="AW3" s="7">
         <v>25</v>
       </c>
-      <c r="AX3" s="8">
+      <c r="AX3" s="7">
         <v>2</v>
       </c>
-      <c r="AY3" s="8">
+      <c r="AY3" s="7">
         <v>9</v>
       </c>
-      <c r="AZ3" s="8">
+      <c r="AZ3" s="7">
         <v>16</v>
       </c>
-      <c r="BA3" s="8">
+      <c r="BA3" s="7">
         <v>23</v>
       </c>
-      <c r="BB3" s="8">
+      <c r="BB3" s="7">
         <v>30</v>
       </c>
-      <c r="BC3" s="8">
+      <c r="BC3" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="18" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z4" s="10" t="s">
+      <c r="L4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AA4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AB4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AC4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AD4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AE4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AF4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN4" s="21" t="s">
+      <c r="AF4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AO4" s="22"/>
-      <c r="AP4" s="23"/>
-      <c r="AQ4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AU4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AZ4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="BA4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="BB4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="BC4" s="12" t="s">
+      <c r="AO4" s="21"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC4" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:55" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1252,7 +1259,7 @@
       <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="19"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1262,338 +1269,340 @@
       <c r="N5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="U5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="V5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="W5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="X5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Y5" s="13" t="s">
+      <c r="Y5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="25"/>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AU5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AZ5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="BA5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="BB5" s="12" t="s">
+      <c r="Z5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN5" s="23"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="12" t="s">
+      <c r="BC5" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:55" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z6" s="10" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AA6" s="10" t="s">
+      <c r="AA6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AB6" s="10" t="s">
+      <c r="AB6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AC6" s="10" t="s">
+      <c r="AC6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AD6" s="10" t="s">
+      <c r="AD6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AE6" s="10" t="s">
+      <c r="AE6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AF6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN6" s="27"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="29"/>
-      <c r="AQ6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AS6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AU6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AZ6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="BA6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="BB6" s="12" t="s">
+      <c r="AF6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="27"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AT6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="BC6" s="12" t="s">
+      <c r="BC6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="14"/>
-      <c r="AQ7" s="14"/>
-      <c r="AR7" s="14"/>
-      <c r="AS7" s="14"/>
-      <c r="AT7" s="14"/>
-      <c r="AU7" s="14"/>
-      <c r="AV7" s="14"/>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="14"/>
-      <c r="AY7" s="14"/>
-      <c r="AZ7" s="14"/>
-      <c r="BA7" s="14"/>
-      <c r="BB7" s="14"/>
-      <c r="BC7" s="14"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="13"/>
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="13"/>
+      <c r="BA7" s="13"/>
+      <c r="BB7" s="13"/>
+      <c r="BC7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="AN4:AP6"/>
     <mergeCell ref="D1:BC1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:J2"/>
@@ -1608,8 +1617,6 @@
     <mergeCell ref="AT2:AW2"/>
     <mergeCell ref="AX2:BA2"/>
     <mergeCell ref="BB2:BC2"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="AN4:AP6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/PyE-222-1.xlsx
+++ b/lections/PyE-222-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E4BAB9-E1F9-4328-B39B-412446047513}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0A4D60-683F-40C6-A735-BE3CBF5F4BFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,6 +428,46 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,46 +477,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -772,60 +772,60 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="15"/>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="15"/>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="15"/>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="15"/>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="15"/>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="15"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="15"/>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="15"/>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="15"/>
-      <c r="BC1" s="16"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="29"/>
+      <c r="AX1" s="29"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="29"/>
+      <c r="BC1" s="30"/>
     </row>
     <row r="2" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -833,84 +833,84 @@
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="14" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="14" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="14" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="14" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="14" t="s">
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="14" t="s">
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="14" t="s">
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="15"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="14" t="s">
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AL2" s="15"/>
-      <c r="AM2" s="15"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="14" t="s">
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="14" t="s">
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="16"/>
-      <c r="AX2" s="14" t="s">
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-      <c r="BA2" s="16"/>
-      <c r="BB2" s="14" t="s">
+      <c r="AY2" s="29"/>
+      <c r="AZ2" s="29"/>
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="BC2" s="16"/>
+      <c r="BC2" s="30"/>
     </row>
     <row r="3" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -1100,7 +1100,7 @@
       <c r="J4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="8" t="s">
@@ -1187,11 +1187,11 @@
       <c r="AM4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AN4" s="20" t="s">
+      <c r="AN4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AO4" s="21"/>
-      <c r="AP4" s="22"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="21"/>
       <c r="AQ4" s="10" t="s">
         <v>18</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="18"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1344,9 +1344,9 @@
       <c r="AM5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="24"/>
-      <c r="AP5" s="25"/>
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="23"/>
+      <c r="AP5" s="24"/>
       <c r="AQ5" s="10" t="s">
         <v>18</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="J6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="19"/>
+      <c r="K6" s="18"/>
       <c r="L6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1497,9 +1497,9 @@
       <c r="AM6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="27"/>
-      <c r="AP6" s="28"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="27"/>
       <c r="AQ6" s="10" t="s">
         <v>18</v>
       </c>
@@ -1544,17 +1544,17 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>

--- a/lections/PyE-222-1.xlsx
+++ b/lections/PyE-222-1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0A4D60-683F-40C6-A735-BE3CBF5F4BFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F931E6-8D85-4F9C-9CC7-0C6F0B340038}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19140" yWindow="3336" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="39">
   <si>
     <t>Календарный план занятий 222 потока группа PY</t>
   </si>
@@ -92,6 +92,51 @@
   </si>
   <si>
     <t xml:space="preserve"> вт, пт</t>
+  </si>
+  <si>
+    <t>10_04</t>
+  </si>
+  <si>
+    <t>14_04</t>
+  </si>
+  <si>
+    <t>15_04</t>
+  </si>
+  <si>
+    <t>18_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Марина </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Амина</t>
+  </si>
+  <si>
+    <t>Алема</t>
+  </si>
+  <si>
+    <t>Абулхаир</t>
+  </si>
+  <si>
+    <t>Бекет</t>
+  </si>
+  <si>
+    <t>Дина</t>
+  </si>
+  <si>
+    <t>Айгерим</t>
+  </si>
+  <si>
+    <t>Диас</t>
+  </si>
+  <si>
+    <t>Экзамен</t>
+  </si>
+  <si>
+    <t>07_04</t>
+  </si>
+  <si>
+    <t>Тестовый экзамен</t>
   </si>
 </sst>
 </file>
@@ -121,7 +166,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +221,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -403,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -477,6 +534,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -757,15 +827,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC7"/>
+  <dimension ref="A1:BC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="55" width="5.88671875" customWidth="1"/>
+    <col min="3" max="23" width="5.88671875" customWidth="1"/>
+    <col min="24" max="24" width="7" customWidth="1"/>
+    <col min="25" max="25" width="14.109375" customWidth="1"/>
+    <col min="26" max="26" width="10" customWidth="1"/>
+    <col min="27" max="55" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1139,10 +1213,10 @@
       <c r="W4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y4" s="8" t="s">
+      <c r="X4" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="32" t="s">
         <v>15</v>
       </c>
       <c r="Z4" s="9" t="s">
@@ -1302,7 +1376,7 @@
       <c r="Y5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="8" t="s">
+      <c r="Z5" s="32" t="s">
         <v>15</v>
       </c>
       <c r="AA5" s="10" t="s">
@@ -1446,13 +1520,13 @@
       <c r="V6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="W6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y6" s="8" t="s">
+      <c r="W6" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="X6" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="32" t="s">
         <v>15</v>
       </c>
       <c r="Z6" s="9" t="s">
@@ -1566,8 +1640,12 @@
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
       <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
+      <c r="X7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y7" s="32" t="s">
+        <v>15</v>
+      </c>
       <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
@@ -1599,8 +1677,78 @@
       <c r="BB7" s="13"/>
       <c r="BC7" s="13"/>
     </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="X10" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="X11" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y11" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z11" s="34"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="X12" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="X13" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="X14" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="X15" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="X16" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="AN4:AP6"/>
     <mergeCell ref="D1:BC1"/>

--- a/lections/PyE-222-1.xlsx
+++ b/lections/PyE-222-1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F931E6-8D85-4F9C-9CC7-0C6F0B340038}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08258550-EF78-4E5A-932A-8B34750FDC77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19140" yWindow="3336" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1644" yWindow="2016" windowWidth="23052" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="38">
   <si>
     <t>Календарный план занятий 222 потока группа PY</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>Абулхаир</t>
-  </si>
-  <si>
-    <t>Бекет</t>
   </si>
   <si>
     <t>Дина</t>
@@ -489,64 +486,64 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -829,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,60 +843,60 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="29"/>
-      <c r="AW1" s="29"/>
-      <c r="AX1" s="29"/>
-      <c r="AY1" s="29"/>
-      <c r="AZ1" s="29"/>
-      <c r="BA1" s="29"/>
-      <c r="BB1" s="29"/>
-      <c r="BC1" s="30"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+      <c r="AL1" s="21"/>
+      <c r="AM1" s="21"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="21"/>
+      <c r="BA1" s="21"/>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="22"/>
     </row>
     <row r="2" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -907,84 +904,84 @@
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="28" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="28" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="28" t="s">
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="28" t="s">
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="28" t="s">
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="28" t="s">
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="28" t="s">
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="28" t="s">
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="28" t="s">
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AU2" s="29"/>
-      <c r="AV2" s="29"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="28" t="s">
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AY2" s="29"/>
-      <c r="AZ2" s="29"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="28" t="s">
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="22"/>
+      <c r="BB2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="BC2" s="30"/>
+      <c r="BC2" s="22"/>
     </row>
     <row r="3" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -1174,7 +1171,7 @@
       <c r="J4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="26" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="8" t="s">
@@ -1213,10 +1210,10 @@
       <c r="W4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y4" s="32" t="s">
+      <c r="X4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="17" t="s">
         <v>15</v>
       </c>
       <c r="Z4" s="9" t="s">
@@ -1261,11 +1258,11 @@
       <c r="AM4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AN4" s="19" t="s">
+      <c r="AN4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AO4" s="20"/>
-      <c r="AP4" s="21"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="31"/>
       <c r="AQ4" s="10" t="s">
         <v>18</v>
       </c>
@@ -1333,7 +1330,7 @@
       <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="17"/>
+      <c r="K5" s="27"/>
       <c r="L5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1376,7 +1373,7 @@
       <c r="Y5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="32" t="s">
+      <c r="Z5" s="17" t="s">
         <v>15</v>
       </c>
       <c r="AA5" s="10" t="s">
@@ -1418,9 +1415,9 @@
       <c r="AM5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="24"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="34"/>
       <c r="AQ5" s="10" t="s">
         <v>18</v>
       </c>
@@ -1486,7 +1483,7 @@
       <c r="J6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="18"/>
+      <c r="K6" s="28"/>
       <c r="L6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1520,13 +1517,13 @@
       <c r="V6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="W6" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="X6" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y6" s="32" t="s">
+      <c r="W6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="X6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="17" t="s">
         <v>15</v>
       </c>
       <c r="Z6" s="9" t="s">
@@ -1571,9 +1568,9 @@
       <c r="AM6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="26"/>
-      <c r="AP6" s="27"/>
+      <c r="AN6" s="35"/>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="37"/>
       <c r="AQ6" s="10" t="s">
         <v>18</v>
       </c>
@@ -1640,10 +1637,10 @@
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
       <c r="W7" s="13"/>
-      <c r="X7" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y7" s="32" t="s">
+      <c r="X7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y7" s="17" t="s">
         <v>15</v>
       </c>
       <c r="Z7" s="13"/>
@@ -1678,69 +1675,66 @@
       <c r="BC7" s="13"/>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X10" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
+      <c r="X10" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X11" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y11" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z11" s="34"/>
+      <c r="X11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z11" s="25"/>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X12" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
+      <c r="X12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X13" s="33" t="s">
+      <c r="X13" s="18" t="s">
         <v>24</v>
       </c>
       <c r="Y13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X14" s="33" t="s">
+      <c r="X14" s="18" t="s">
         <v>25</v>
       </c>
       <c r="Y14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X15" s="33" t="s">
+      <c r="X15" s="18" t="s">
         <v>26</v>
       </c>
       <c r="Y15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Z15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X16" s="33" t="s">
+      <c r="X16" s="18" t="s">
         <v>27</v>
       </c>
       <c r="Y16" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z16" t="s">
         <v>31</v>
       </c>
     </row>

--- a/lections/PyE-222-1.xlsx
+++ b/lections/PyE-222-1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08258550-EF78-4E5A-932A-8B34750FDC77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3974C2-A9F1-4B7A-B119-AB4FBADF0E27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1644" yWindow="2016" windowWidth="23052" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="37">
   <si>
     <t>Календарный план занятий 222 потока группа PY</t>
   </si>
@@ -94,15 +94,9 @@
     <t xml:space="preserve"> вт, пт</t>
   </si>
   <si>
-    <t>10_04</t>
-  </si>
-  <si>
     <t>14_04</t>
   </si>
   <si>
-    <t>15_04</t>
-  </si>
-  <si>
     <t>18_04</t>
   </si>
   <si>
@@ -134,6 +128,9 @@
   </si>
   <si>
     <t>Тестовый экзамен</t>
+  </si>
+  <si>
+    <t>11_04</t>
   </si>
 </sst>
 </file>
@@ -163,7 +160,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +227,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -457,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -490,6 +493,51 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -499,51 +547,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -826,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView tabSelected="1" topLeftCell="R4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -843,60 +847,60 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="21"/>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="21"/>
-      <c r="BA1" s="21"/>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="22"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="37"/>
     </row>
     <row r="2" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -904,84 +908,84 @@
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="20" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="20" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="20" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="20" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="20" t="s">
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="20" t="s">
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="20" t="s">
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="20" t="s">
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="20" t="s">
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="20" t="s">
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="22"/>
-      <c r="AX2" s="20" t="s">
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="36"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="22"/>
-      <c r="BB2" s="20" t="s">
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="BC2" s="22"/>
+      <c r="BC2" s="37"/>
     </row>
     <row r="3" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -1171,7 +1175,7 @@
       <c r="J4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="8" t="s">
@@ -1258,11 +1262,11 @@
       <c r="AM4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AN4" s="29" t="s">
+      <c r="AN4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AO4" s="30"/>
-      <c r="AP4" s="31"/>
+      <c r="AO4" s="27"/>
+      <c r="AP4" s="28"/>
       <c r="AQ4" s="10" t="s">
         <v>18</v>
       </c>
@@ -1330,7 +1334,7 @@
       <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="27"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1415,9 +1419,9 @@
       <c r="AM5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AN5" s="32"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="34"/>
+      <c r="AN5" s="29"/>
+      <c r="AO5" s="30"/>
+      <c r="AP5" s="31"/>
       <c r="AQ5" s="10" t="s">
         <v>18</v>
       </c>
@@ -1483,7 +1487,7 @@
       <c r="J6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="28"/>
+      <c r="K6" s="25"/>
       <c r="L6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1568,9 +1572,9 @@
       <c r="AM6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AN6" s="35"/>
-      <c r="AO6" s="36"/>
-      <c r="AP6" s="37"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="33"/>
+      <c r="AP6" s="34"/>
       <c r="AQ6" s="10" t="s">
         <v>18</v>
       </c>
@@ -1675,76 +1679,69 @@
       <c r="BC7" s="13"/>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X10" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
+      <c r="X10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="X11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y11" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="Z11" s="25"/>
+      <c r="Y11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z11" s="22"/>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X12" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
+      <c r="X12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="X13" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y13" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z13" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA13" s="38" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="X14" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Z14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="X15" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X16" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>31</v>
-      </c>
+      <c r="X16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="AN4:AP6"/>
     <mergeCell ref="D1:BC1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:J2"/>
@@ -1759,6 +1756,11 @@
     <mergeCell ref="AT2:AW2"/>
     <mergeCell ref="AX2:BA2"/>
     <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="AN4:AP6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/PyE-222-1.xlsx
+++ b/lections/PyE-222-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3974C2-A9F1-4B7A-B119-AB4FBADF0E27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61296DA2-5F3F-4178-BBC1-51F01CA636D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +233,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -460,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -493,6 +499,16 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,16 +554,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -831,7 +839,7 @@
   <dimension ref="A1:BC16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,60 +855,60 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="37"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="23"/>
     </row>
     <row r="2" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -908,84 +916,84 @@
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="35" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="35" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="35" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="35" t="s">
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="35" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="35" t="s">
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="35" t="s">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="35" t="s">
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="35" t="s">
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="35" t="s">
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="35" t="s">
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="35" t="s">
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="BC2" s="37"/>
+      <c r="BC2" s="23"/>
     </row>
     <row r="3" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -1175,7 +1183,7 @@
       <c r="J4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="27" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="8" t="s">
@@ -1262,11 +1270,11 @@
       <c r="AM4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AN4" s="26" t="s">
+      <c r="AN4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="AO4" s="27"/>
-      <c r="AP4" s="28"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="32"/>
       <c r="AQ4" s="10" t="s">
         <v>18</v>
       </c>
@@ -1334,7 +1342,7 @@
       <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="24"/>
+      <c r="K5" s="28"/>
       <c r="L5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1419,9 +1427,9 @@
       <c r="AM5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="30"/>
-      <c r="AP5" s="31"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="35"/>
       <c r="AQ5" s="10" t="s">
         <v>18</v>
       </c>
@@ -1487,7 +1495,7 @@
       <c r="J6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="K6" s="29"/>
       <c r="L6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1572,9 +1580,9 @@
       <c r="AM6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="33"/>
-      <c r="AP6" s="34"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="37"/>
+      <c r="AP6" s="38"/>
       <c r="AQ6" s="10" t="s">
         <v>18</v>
       </c>
@@ -1679,39 +1687,39 @@
       <c r="BC7" s="13"/>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X10" s="21" t="s">
+      <c r="X10" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="X11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="Y11" s="22" t="s">
+      <c r="Y11" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="Z11" s="22"/>
+      <c r="Z11" s="26"/>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X12" s="20" t="s">
+      <c r="X12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="X13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Y13" s="38" t="s">
+      <c r="Y13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="Z13" s="38" t="s">
+      <c r="Z13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="AA13" s="38" t="s">
+      <c r="AA13" s="20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1719,10 +1727,10 @@
       <c r="X14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Y14" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Z14" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1730,10 +1738,10 @@
       <c r="X15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Y15" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Z15" s="40" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1742,6 +1750,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="AN4:AP6"/>
     <mergeCell ref="D1:BC1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:J2"/>
@@ -1756,11 +1769,6 @@
     <mergeCell ref="AT2:AW2"/>
     <mergeCell ref="AX2:BA2"/>
     <mergeCell ref="BB2:BC2"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="AN4:AP6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/PyE-222-1.xlsx
+++ b/lections/PyE-222-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61296DA2-5F3F-4178-BBC1-51F01CA636D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084FEC25-8B38-4A6E-9993-0DFD19FE1754}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,12 +188,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,7 +471,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -488,18 +482,64 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -509,53 +549,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -838,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R4" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,60 +849,60 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="22"/>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="22"/>
-      <c r="BA1" s="22"/>
-      <c r="BB1" s="22"/>
-      <c r="BC1" s="23"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="39"/>
     </row>
     <row r="2" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -916,84 +910,84 @@
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="21" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="21" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="21" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="21" t="s">
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="21" t="s">
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="21" t="s">
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="21" t="s">
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="21" t="s">
+      <c r="AH2" s="38"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="21" t="s">
+      <c r="AL2" s="38"/>
+      <c r="AM2" s="38"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="21" t="s">
+      <c r="AP2" s="38"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="22"/>
-      <c r="AW2" s="23"/>
-      <c r="AX2" s="21" t="s">
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AY2" s="22"/>
-      <c r="AZ2" s="22"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="21" t="s">
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="39"/>
+      <c r="BB2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="BC2" s="23"/>
+      <c r="BC2" s="39"/>
     </row>
     <row r="3" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -1183,7 +1177,7 @@
       <c r="J4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="25" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="8" t="s">
@@ -1222,10 +1216,10 @@
       <c r="W4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y4" s="17" t="s">
+      <c r="X4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="16" t="s">
         <v>15</v>
       </c>
       <c r="Z4" s="9" t="s">
@@ -1270,11 +1264,11 @@
       <c r="AM4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AN4" s="30" t="s">
+      <c r="AN4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="32"/>
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="30"/>
       <c r="AQ4" s="10" t="s">
         <v>18</v>
       </c>
@@ -1305,13 +1299,13 @@
       <c r="AZ4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="BA4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="BB4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="BC4" s="11" t="s">
+      <c r="BA4" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB4" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC4" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1342,7 +1336,7 @@
       <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="28"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1352,40 +1346,40 @@
       <c r="N5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="U5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="12" t="s">
+      <c r="W5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="12" t="s">
+      <c r="X5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Y5" s="12" t="s">
+      <c r="Y5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="17" t="s">
+      <c r="Z5" s="16" t="s">
         <v>15</v>
       </c>
       <c r="AA5" s="10" t="s">
@@ -1427,9 +1421,9 @@
       <c r="AM5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="35"/>
+      <c r="AN5" s="31"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="33"/>
       <c r="AQ5" s="10" t="s">
         <v>18</v>
       </c>
@@ -1460,13 +1454,13 @@
       <c r="AZ5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="BA5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="BB5" s="11" t="s">
+      <c r="BA5" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="11" t="s">
+      <c r="BC5" s="16" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1495,7 +1489,7 @@
       <c r="J6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="29"/>
+      <c r="K6" s="27"/>
       <c r="L6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1529,13 +1523,13 @@
       <c r="V6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="W6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y6" s="17" t="s">
+      <c r="W6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="X6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="Z6" s="9" t="s">
@@ -1580,9 +1574,9 @@
       <c r="AM6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="37"/>
-      <c r="AP6" s="38"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="35"/>
+      <c r="AP6" s="36"/>
       <c r="AQ6" s="10" t="s">
         <v>18</v>
       </c>
@@ -1610,151 +1604,146 @@
       <c r="AY6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AZ6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="BA6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="BB6" s="11" t="s">
+      <c r="AZ6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="BC6" s="11" t="s">
+      <c r="BC6" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="13"/>
-      <c r="AW7" s="13"/>
-      <c r="AX7" s="13"/>
-      <c r="AY7" s="13"/>
-      <c r="AZ7" s="13"/>
-      <c r="BA7" s="13"/>
-      <c r="BB7" s="13"/>
-      <c r="BC7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X10" s="25" t="s">
+      <c r="X10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X11" s="18" t="s">
+      <c r="X11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="Y11" s="26" t="s">
+      <c r="Y11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="Z11" s="26"/>
+      <c r="Z11" s="24"/>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X12" s="24" t="s">
+      <c r="X12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X13" s="18" t="s">
+      <c r="X13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="Y13" s="20" t="s">
+      <c r="Y13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="Z13" s="20" t="s">
+      <c r="Z13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AA13" s="20" t="s">
+      <c r="AA13" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X14" s="18" t="s">
+      <c r="X14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Y14" s="39" t="s">
+      <c r="Y14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="Z14" s="39" t="s">
+      <c r="Z14" s="20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X15" s="18" t="s">
+      <c r="X15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="Y15" s="40" t="s">
+      <c r="Y15" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="Z15" s="40" t="s">
+      <c r="Z15" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X16" s="18"/>
+      <c r="X16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="AN4:AP6"/>
     <mergeCell ref="D1:BC1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:J2"/>
@@ -1769,6 +1758,11 @@
     <mergeCell ref="AT2:AW2"/>
     <mergeCell ref="AX2:BA2"/>
     <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="AN4:AP6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/PyE-222-1.xlsx
+++ b/lections/PyE-222-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084FEC25-8B38-4A6E-9993-0DFD19FE1754}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951292F8-ACD8-491E-B578-17129F1E036F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="24">
   <si>
     <t>Календарный план занятий 222 потока группа PY</t>
   </si>
@@ -92,52 +92,13 @@
   </si>
   <si>
     <t xml:space="preserve"> вт, пт</t>
-  </si>
-  <si>
-    <t>14_04</t>
-  </si>
-  <si>
-    <t>18_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Марина </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Амина</t>
-  </si>
-  <si>
-    <t>Алема</t>
-  </si>
-  <si>
-    <t>Абулхаир</t>
-  </si>
-  <si>
-    <t>Дина</t>
-  </si>
-  <si>
-    <t>Айгерим</t>
-  </si>
-  <si>
-    <t>Диас</t>
-  </si>
-  <si>
-    <t>Экзамен</t>
-  </si>
-  <si>
-    <t>07_04</t>
-  </si>
-  <si>
-    <t>Тестовый экзамен</t>
-  </si>
-  <si>
-    <t>11_04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +120,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,12 +191,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -460,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -490,18 +452,15 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -540,16 +499,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -832,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="BC4" sqref="BB4:BC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,60 +803,60 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="39"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="21"/>
     </row>
     <row r="2" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -910,84 +864,84 @@
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="37" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="37" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="37" t="s">
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="37" t="s">
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="37" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="37" t="s">
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="37" t="s">
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="37" t="s">
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="37" t="s">
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="37" t="s">
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="39"/>
-      <c r="AX2" s="37" t="s">
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="39"/>
-      <c r="BB2" s="37" t="s">
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="BC2" s="39"/>
+      <c r="BC2" s="21"/>
     </row>
     <row r="3" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -1177,7 +1131,7 @@
       <c r="J4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="22" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="8" t="s">
@@ -1264,11 +1218,11 @@
       <c r="AM4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AN4" s="28" t="s">
+      <c r="AN4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="30"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="27"/>
       <c r="AQ4" s="10" t="s">
         <v>18</v>
       </c>
@@ -1299,10 +1253,10 @@
       <c r="AZ4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="BA4" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="BB4" s="40" t="s">
+      <c r="BA4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="BC4" s="16" t="s">
@@ -1336,7 +1290,7 @@
       <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="26"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1421,9 +1375,9 @@
       <c r="AM5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="33"/>
+      <c r="AN5" s="28"/>
+      <c r="AO5" s="29"/>
+      <c r="AP5" s="30"/>
       <c r="AQ5" s="10" t="s">
         <v>18</v>
       </c>
@@ -1454,7 +1408,7 @@
       <c r="AZ5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="BA5" s="40" t="s">
+      <c r="BA5" s="18" t="s">
         <v>18</v>
       </c>
       <c r="BB5" s="16" t="s">
@@ -1489,7 +1443,7 @@
       <c r="J6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="27"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="8" t="s">
         <v>15</v>
       </c>
@@ -1526,7 +1480,7 @@
       <c r="W6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="X6" s="18" t="s">
+      <c r="X6" s="17" t="s">
         <v>15</v>
       </c>
       <c r="Y6" s="16" t="s">
@@ -1574,9 +1528,9 @@
       <c r="AM6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AN6" s="34"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="36"/>
+      <c r="AN6" s="31"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="33"/>
       <c r="AQ6" s="10" t="s">
         <v>18</v>
       </c>
@@ -1604,10 +1558,10 @@
       <c r="AY6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AZ6" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="BA6" s="40" t="s">
+      <c r="AZ6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA6" s="18" t="s">
         <v>18</v>
       </c>
       <c r="BB6" s="16" t="s">
@@ -1643,7 +1597,7 @@
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
-      <c r="X7" s="18" t="s">
+      <c r="X7" s="17" t="s">
         <v>15</v>
       </c>
       <c r="Y7" s="16" t="s">
@@ -1680,70 +1634,93 @@
       <c r="BB7" s="12"/>
       <c r="BC7" s="12"/>
     </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+    </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X10" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y11" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z11" s="24"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X12" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X13" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA13" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y14" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z14" s="20" t="s">
-        <v>27</v>
-      </c>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y15" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z15" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="X16" s="17"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="AN4:AP6"/>
     <mergeCell ref="D1:BC1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:J2"/>
@@ -1758,11 +1735,6 @@
     <mergeCell ref="AT2:AW2"/>
     <mergeCell ref="AX2:BA2"/>
     <mergeCell ref="BB2:BC2"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="AN4:AP6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lections/PyE-222-1.xlsx
+++ b/lections/PyE-222-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951292F8-ACD8-491E-B578-17129F1E036F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A483FA-C6C0-45E2-B8A8-2CC1C864E1C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,6 +454,47 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -463,47 +504,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -787,7 +787,7 @@
   <dimension ref="A1:BC16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="BC4" sqref="BB4:BC6"/>
+      <selection activeCell="BA7" sqref="BA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,60 +803,60 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="5"/>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="20"/>
-      <c r="AY1" s="20"/>
-      <c r="AZ1" s="20"/>
-      <c r="BA1" s="20"/>
-      <c r="BB1" s="20"/>
-      <c r="BC1" s="21"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="35"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="35"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="36"/>
     </row>
     <row r="2" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -864,84 +864,84 @@
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="19" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="19" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="19" t="s">
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="19" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="19" t="s">
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="19" t="s">
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="19" t="s">
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="19" t="s">
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="19" t="s">
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="19" t="s">
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="35"/>
+      <c r="AR2" s="35"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AU2" s="20"/>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="19" t="s">
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="35"/>
+      <c r="AW2" s="36"/>
+      <c r="AX2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="19" t="s">
+      <c r="AY2" s="35"/>
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="36"/>
+      <c r="BB2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="BC2" s="21"/>
+      <c r="BC2" s="36"/>
     </row>
     <row r="3" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -1635,92 +1635,87 @@
       <c r="BC7" s="12"/>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.3">
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="36"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="AN4:AP6"/>
     <mergeCell ref="D1:BC1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:J2"/>
@@ -1735,6 +1730,11 @@
     <mergeCell ref="AT2:AW2"/>
     <mergeCell ref="AX2:BA2"/>
     <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="AN4:AP6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
